--- a/Dokumentation/Diagramme/Gantt-Diagramm.xlsx
+++ b/Dokumentation/Diagramme/Gantt-Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A80078-F893-48A8-A425-01937653370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0E661-123D-4BC0-867E-ED0FEAE67ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -243,9 +243,6 @@
     <t>Systemtests</t>
   </si>
   <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
     <t>Event Klasse im Model</t>
   </si>
   <si>
@@ -282,13 +279,25 @@
     <t>na</t>
   </si>
   <si>
-    <t>Pari implementieren (neue Spezification)</t>
-  </si>
-  <si>
     <t>Ausgabeformat ändern</t>
   </si>
   <si>
     <t>Gantt Chart aktualisieren</t>
+  </si>
+  <si>
+    <t>Pair implementieren (neue Spezification)</t>
+  </si>
+  <si>
+    <t>Klassendiagramm aktualisieren</t>
+  </si>
+  <si>
+    <t>Parviz + Christian + Le</t>
+  </si>
+  <si>
+    <t>Dokumentation (Javadoc + Test)</t>
+  </si>
+  <si>
+    <t>Christian + Parviz + Le</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1090,7 @@
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1241,6 +1250,27 @@
     <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,30 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2000,11 +2006,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:BL41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2055,13 +2061,13 @@
       <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="65">
         <f ca="1">TODAY()</f>
-        <v>45448</v>
+        <v>45456</v>
       </c>
       <c r="F3" s="65"/>
     </row>
@@ -2069,16 +2075,16 @@
       <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="I4" s="62">
         <f ca="1">I5</f>
-        <v>45411</v>
+        <v>45404</v>
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
@@ -2088,7 +2094,7 @@
       <c r="O4" s="64"/>
       <c r="P4" s="62">
         <f ca="1">P5</f>
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
@@ -2098,7 +2104,7 @@
       <c r="V4" s="64"/>
       <c r="W4" s="62">
         <f ca="1">W5</f>
-        <v>45425</v>
+        <v>45418</v>
       </c>
       <c r="X4" s="63"/>
       <c r="Y4" s="63"/>
@@ -2108,7 +2114,7 @@
       <c r="AC4" s="64"/>
       <c r="AD4" s="62">
         <f ca="1">AD5</f>
-        <v>45432</v>
+        <v>45425</v>
       </c>
       <c r="AE4" s="63"/>
       <c r="AF4" s="63"/>
@@ -2118,7 +2124,7 @@
       <c r="AJ4" s="64"/>
       <c r="AK4" s="62">
         <f ca="1">AK5</f>
-        <v>45439</v>
+        <v>45432</v>
       </c>
       <c r="AL4" s="63"/>
       <c r="AM4" s="63"/>
@@ -2128,7 +2134,7 @@
       <c r="AQ4" s="64"/>
       <c r="AR4" s="62">
         <f ca="1">AR5</f>
-        <v>45446</v>
+        <v>45439</v>
       </c>
       <c r="AS4" s="63"/>
       <c r="AT4" s="63"/>
@@ -2138,7 +2144,7 @@
       <c r="AX4" s="64"/>
       <c r="AY4" s="62">
         <f ca="1">AY5</f>
-        <v>45453</v>
+        <v>45446</v>
       </c>
       <c r="AZ4" s="63"/>
       <c r="BA4" s="63"/>
@@ -2148,7 +2154,7 @@
       <c r="BE4" s="64"/>
       <c r="BF4" s="62">
         <f ca="1">BF5</f>
-        <v>45460</v>
+        <v>45453</v>
       </c>
       <c r="BG4" s="63"/>
       <c r="BH4" s="63"/>
@@ -2169,227 +2175,227 @@
       <c r="G5" s="39"/>
       <c r="I5" s="46">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
-        <v>45411</v>
+        <v>45404</v>
       </c>
       <c r="J5" s="47">
         <f ca="1">I5+1</f>
-        <v>45412</v>
+        <v>45405</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45413</v>
+        <v>45406</v>
       </c>
       <c r="L5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45414</v>
+        <v>45407</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45415</v>
+        <v>45408</v>
       </c>
       <c r="N5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45416</v>
+        <v>45409</v>
       </c>
       <c r="O5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45417</v>
+        <v>45410</v>
       </c>
       <c r="P5" s="46">
         <f ca="1">O5+1</f>
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="Q5" s="47">
         <f ca="1">P5+1</f>
-        <v>45419</v>
+        <v>45412</v>
       </c>
       <c r="R5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="S5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45421</v>
+        <v>45414</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45422</v>
+        <v>45415</v>
       </c>
       <c r="U5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45423</v>
+        <v>45416</v>
       </c>
       <c r="V5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45424</v>
+        <v>45417</v>
       </c>
       <c r="W5" s="46">
         <f ca="1">V5+1</f>
-        <v>45425</v>
+        <v>45418</v>
       </c>
       <c r="X5" s="47">
         <f ca="1">W5+1</f>
-        <v>45426</v>
+        <v>45419</v>
       </c>
       <c r="Y5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45427</v>
+        <v>45420</v>
       </c>
       <c r="Z5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45428</v>
+        <v>45421</v>
       </c>
       <c r="AA5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45429</v>
+        <v>45422</v>
       </c>
       <c r="AB5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45430</v>
+        <v>45423</v>
       </c>
       <c r="AC5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45431</v>
+        <v>45424</v>
       </c>
       <c r="AD5" s="46">
         <f ca="1">AC5+1</f>
-        <v>45432</v>
+        <v>45425</v>
       </c>
       <c r="AE5" s="47">
         <f ca="1">AD5+1</f>
-        <v>45433</v>
+        <v>45426</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45434</v>
+        <v>45427</v>
       </c>
       <c r="AG5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45435</v>
+        <v>45428</v>
       </c>
       <c r="AH5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45436</v>
+        <v>45429</v>
       </c>
       <c r="AI5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45437</v>
+        <v>45430</v>
       </c>
       <c r="AJ5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45438</v>
+        <v>45431</v>
       </c>
       <c r="AK5" s="46">
         <f ca="1">AJ5+1</f>
-        <v>45439</v>
+        <v>45432</v>
       </c>
       <c r="AL5" s="47">
         <f ca="1">AK5+1</f>
-        <v>45440</v>
+        <v>45433</v>
       </c>
       <c r="AM5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45441</v>
+        <v>45434</v>
       </c>
       <c r="AN5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45442</v>
+        <v>45435</v>
       </c>
       <c r="AO5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45443</v>
+        <v>45436</v>
       </c>
       <c r="AP5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45444</v>
+        <v>45437</v>
       </c>
       <c r="AQ5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45445</v>
+        <v>45438</v>
       </c>
       <c r="AR5" s="46">
         <f ca="1">AQ5+1</f>
-        <v>45446</v>
+        <v>45439</v>
       </c>
       <c r="AS5" s="47">
         <f ca="1">AR5+1</f>
-        <v>45447</v>
+        <v>45440</v>
       </c>
       <c r="AT5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45448</v>
+        <v>45441</v>
       </c>
       <c r="AU5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45449</v>
+        <v>45442</v>
       </c>
       <c r="AV5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45450</v>
+        <v>45443</v>
       </c>
       <c r="AW5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>45451</v>
+        <v>45444</v>
       </c>
       <c r="AX5" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>45452</v>
+        <v>45445</v>
       </c>
       <c r="AY5" s="46">
         <f ca="1">AX5+1</f>
-        <v>45453</v>
+        <v>45446</v>
       </c>
       <c r="AZ5" s="47">
         <f ca="1">AY5+1</f>
-        <v>45454</v>
+        <v>45447</v>
       </c>
       <c r="BA5" s="47">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45455</v>
+        <v>45448</v>
       </c>
       <c r="BB5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>45456</v>
+        <v>45449</v>
       </c>
       <c r="BC5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>45457</v>
+        <v>45450</v>
       </c>
       <c r="BD5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>45458</v>
+        <v>45451</v>
       </c>
       <c r="BE5" s="48">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45452</v>
       </c>
       <c r="BF5" s="46">
         <f ca="1">BE5+1</f>
-        <v>45460</v>
+        <v>45453</v>
       </c>
       <c r="BG5" s="47">
         <f ca="1">BF5+1</f>
-        <v>45461</v>
+        <v>45454</v>
       </c>
       <c r="BH5" s="47">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45462</v>
+        <v>45455</v>
       </c>
       <c r="BI5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>45463</v>
+        <v>45456</v>
       </c>
       <c r="BJ5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>45464</v>
+        <v>45457</v>
       </c>
       <c r="BK5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>45465</v>
+        <v>45458</v>
       </c>
       <c r="BL5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>45466</v>
+        <v>45459</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2711,13 +2717,13 @@
       <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="str">
         <f t="shared" ref="H8:H30" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -3479,14 +3485,14 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
       <c r="AL17" s="17"/>
       <c r="AM17" s="17"/>
       <c r="AN17" s="17"/>
@@ -3558,14 +3564,14 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
       <c r="AL18" s="17"/>
       <c r="AM18" s="17"/>
       <c r="AN18" s="17"/>
@@ -3600,7 +3606,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="54">
         <v>1</v>
@@ -3637,14 +3643,14 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
       <c r="AL19" s="17"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
@@ -3679,7 +3685,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="54">
         <v>1</v>
@@ -3716,14 +3722,14 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
       <c r="AL20" s="17"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
@@ -3842,12 +3848,16 @@
       <c r="D22" s="54">
         <v>1</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="45">
+        <v>45433</v>
+      </c>
+      <c r="F22" s="45">
+        <v>45440</v>
+      </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="12" t="str">
+      <c r="H22" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -3912,15 +3922,15 @@
         <v>40</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="54">
         <v>1</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="61">
         <v>45433</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="61">
         <v>45440</v>
       </c>
       <c r="G23" s="12"/>
@@ -3988,12 +3998,14 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="30"/>
       <c r="B24" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="54">
+        <v>1</v>
+      </c>
       <c r="E24" s="45">
         <v>45426</v>
       </c>
@@ -4068,9 +4080,11 @@
         <v>51</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="54"/>
+        <v>62</v>
+      </c>
+      <c r="D25" s="54">
+        <v>1</v>
+      </c>
       <c r="E25" s="45">
         <v>45447</v>
       </c>
@@ -4147,13 +4161,19 @@
       <c r="C26" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="D26" s="54">
+        <v>1</v>
+      </c>
+      <c r="E26" s="45">
+        <v>45453</v>
+      </c>
+      <c r="F26" s="45">
+        <v>45455</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="12" t="str">
+      <c r="H26" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -4215,18 +4235,24 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30"/>
       <c r="B27" s="56" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="54">
+        <v>1</v>
+      </c>
+      <c r="E27" s="45">
+        <v>45449</v>
+      </c>
+      <c r="F27" s="45">
+        <v>45456</v>
+      </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="12" t="str">
+      <c r="H27" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -4288,12 +4314,14 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="30"/>
       <c r="B28" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="54">
+        <v>1</v>
+      </c>
       <c r="E28" s="45">
         <v>45433</v>
       </c>
@@ -4365,9 +4393,9 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="30"/>
       <c r="B29" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="54">
@@ -4444,10 +4472,10 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="30"/>
       <c r="B30" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="D30" s="54">
         <v>1</v>
@@ -4523,9 +4551,9 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="30"/>
       <c r="B31" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="54">
@@ -4604,10 +4632,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="54">
         <v>1</v>
@@ -4682,13 +4710,17 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="54">
+        <v>1</v>
+      </c>
       <c r="E33" s="45">
         <v>45448</v>
       </c>
@@ -4757,9 +4789,9 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="30"/>
       <c r="B34" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="66"/>
+        <v>65</v>
+      </c>
+      <c r="C34" s="38"/>
       <c r="D34" s="54"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
@@ -4825,9 +4857,11 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="30"/>
       <c r="B35" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="66"/>
+        <v>66</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>46</v>
+      </c>
       <c r="D35" s="54">
         <v>1</v>
       </c>
@@ -4901,9 +4935,9 @@
         <v>12</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="66"/>
+        <v>60</v>
+      </c>
+      <c r="C36" s="38"/>
       <c r="D36" s="54"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
@@ -4972,12 +5006,20 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="31"/>
       <c r="B37" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="45">
+        <v>45453</v>
+      </c>
+      <c r="F37" s="45">
+        <v>45456</v>
+      </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="17"/>
@@ -5037,19 +5079,19 @@
       <c r="BK37" s="17"/>
       <c r="BL37" s="17"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="66"/>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="31"/>
+      <c r="B38" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="D38" s="54"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="12" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -5107,15 +5149,94 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="10"/>
-      <c r="F39" s="32"/>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="54">
+        <v>1</v>
+      </c>
+      <c r="E39" s="45">
+        <v>45454</v>
+      </c>
+      <c r="F39" s="45"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="17"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="17"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="17"/>
+      <c r="BG39" s="17"/>
+      <c r="BH39" s="17"/>
+      <c r="BI39" s="17"/>
+      <c r="BJ39" s="17"/>
+      <c r="BK39" s="17"/>
+      <c r="BL39" s="17"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5123,11 +5244,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
     <cfRule type="dataBar" priority="1">
@@ -5157,7 +5273,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D38 D7">
+  <conditionalFormatting sqref="D17:D39 D7">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5171,12 +5287,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
+  <conditionalFormatting sqref="I5:BL39">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL38">
+  <conditionalFormatting sqref="I7:BL39">
     <cfRule type="expression" dxfId="1" priority="29">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5245,7 +5361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17:D38 D7</xm:sqref>
+          <xm:sqref>D17:D39 D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5357,35 +5473,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5673,27 +5760,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5712,4 +5808,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dokumentation/Diagramme/Gantt-Diagramm.xlsx
+++ b/Dokumentation/Diagramme/Gantt-Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0E661-123D-4BC0-867E-ED0FEAE67ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CCA8ED-8CAA-4236-B2C4-F7786E6D0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Christian + Parviz + Le</t>
+  </si>
+  <si>
+    <t>Method getAverageAgeDifference()</t>
+  </si>
+  <si>
+    <t>Check Kriterien 6.4</t>
   </si>
 </sst>
 </file>
@@ -1259,6 +1265,15 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1270,15 +1285,6 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2006,11 +2012,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL41"/>
+  <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2061,107 +2067,107 @@
       <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="65">
+      <c r="D3" s="64"/>
+      <c r="E3" s="68">
         <f ca="1">TODAY()</f>
         <v>45456</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="6">
         <v>-6</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="65">
         <f ca="1">I5</f>
         <v>45404</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="62">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="65">
         <f ca="1">P5</f>
         <v>45411</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="62">
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="65">
         <f ca="1">W5</f>
         <v>45418</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="62">
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="65">
         <f ca="1">AD5</f>
         <v>45425</v>
       </c>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="62">
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="65">
         <f ca="1">AK5</f>
         <v>45432</v>
       </c>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="62">
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="65">
         <f ca="1">AR5</f>
         <v>45439</v>
       </c>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="62">
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="65">
         <f ca="1">AY5</f>
         <v>45446</v>
       </c>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="62">
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="65">
         <f ca="1">BF5</f>
         <v>45453</v>
       </c>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="63"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="64"/>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="67"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="31" t="s">
@@ -2717,13 +2723,13 @@
       <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="str">
         <f t="shared" ref="H8:H30" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -4792,9 +4798,15 @@
         <v>65</v>
       </c>
       <c r="C34" s="38"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="54">
+        <v>1</v>
+      </c>
+      <c r="E34" s="45">
+        <v>45449</v>
+      </c>
+      <c r="F34" s="45">
+        <v>45453</v>
+      </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="17"/>
@@ -4939,12 +4951,16 @@
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="54"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="E36" s="45">
+        <v>45449</v>
+      </c>
+      <c r="F36" s="45">
+        <v>45453</v>
+      </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="12" t="str">
+      <c r="H36" s="12">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -5088,8 +5104,12 @@
         <v>69</v>
       </c>
       <c r="D38" s="54"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
+      <c r="E38" s="45">
+        <v>45455</v>
+      </c>
+      <c r="F38" s="45">
+        <v>45455</v>
+      </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="17"/>
@@ -5149,23 +5169,21 @@
       <c r="BK38" s="17"/>
       <c r="BL38" s="17"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="57" t="s">
-        <v>61</v>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="31"/>
+      <c r="B39" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="38"/>
-      <c r="D39" s="54">
-        <v>1</v>
-      </c>
+      <c r="D39" s="54"/>
       <c r="E39" s="45">
-        <v>45454</v>
-      </c>
-      <c r="F39" s="45"/>
+        <v>45455</v>
+      </c>
+      <c r="F39" s="45">
+        <v>45458</v>
+      </c>
       <c r="G39" s="12"/>
-      <c r="H39" s="12" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H39" s="12"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
@@ -5223,20 +5241,165 @@
       <c r="BK39" s="17"/>
       <c r="BL39" s="17"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="10"/>
-      <c r="F40" s="32"/>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="31"/>
+      <c r="B40" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="45">
+        <v>45454</v>
+      </c>
+      <c r="F40" s="45">
+        <v>45458</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="17"/>
+      <c r="AT40" s="17"/>
+      <c r="AU40" s="17"/>
+      <c r="AV40" s="17"/>
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="17"/>
+      <c r="AZ40" s="17"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="17"/>
+      <c r="BD40" s="17"/>
+      <c r="BE40" s="17"/>
+      <c r="BF40" s="17"/>
+      <c r="BG40" s="17"/>
+      <c r="BH40" s="17"/>
+      <c r="BI40" s="17"/>
+      <c r="BJ40" s="17"/>
+      <c r="BK40" s="17"/>
+      <c r="BL40" s="17"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="11"/>
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="54">
+        <v>1</v>
+      </c>
+      <c r="E41" s="45">
+        <v>45454</v>
+      </c>
+      <c r="F41" s="45">
+        <v>45454</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="17"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="17"/>
+      <c r="AT41" s="17"/>
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="17"/>
+      <c r="AW41" s="17"/>
+      <c r="AX41" s="17"/>
+      <c r="AY41" s="17"/>
+      <c r="AZ41" s="17"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="17"/>
+      <c r="BF41" s="17"/>
+      <c r="BG41" s="17"/>
+      <c r="BH41" s="17"/>
+      <c r="BI41" s="17"/>
+      <c r="BJ41" s="17"/>
+      <c r="BK41" s="17"/>
+      <c r="BL41" s="17"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="10"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5244,6 +5407,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
     <cfRule type="dataBar" priority="1">
@@ -5273,7 +5441,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D39 D7">
+  <conditionalFormatting sqref="D17:D41 D7">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5287,12 +5455,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL39">
+  <conditionalFormatting sqref="I5:BL41">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL39">
+  <conditionalFormatting sqref="I7:BL41">
     <cfRule type="expression" dxfId="1" priority="29">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5361,7 +5529,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17:D39 D7</xm:sqref>
+          <xm:sqref>D17:D41 D7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5473,6 +5641,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5760,36 +5957,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5808,24 +5996,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dokumentation/Diagramme/Gantt-Diagramm.xlsx
+++ b/Dokumentation/Diagramme/Gantt-Diagramm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CCA8ED-8CAA-4236-B2C4-F7786E6D0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129F5BC-6F20-46E6-AAFF-40D18F67869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="37" windowWidth="11775" windowHeight="12106" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -304,6 +304,33 @@
   </si>
   <si>
     <t>Check Kriterien 6.4</t>
+  </si>
+  <si>
+    <t>3. Meilenstein</t>
+  </si>
+  <si>
+    <t>Cancel-Method weiter entwickeln</t>
+  </si>
+  <si>
+    <t>Paare vergleichen</t>
+  </si>
+  <si>
+    <t>Manuelle Anpassung</t>
+  </si>
+  <si>
+    <t>Tests für Methode</t>
+  </si>
+  <si>
+    <t>Tests für GUI</t>
+  </si>
+  <si>
+    <t>Pseudocode von Pärchenerstellung</t>
+  </si>
+  <si>
+    <t>Pseudocode von Gruppenerstellung</t>
+  </si>
+  <si>
+    <t>am 02.07 dem Tutor abschicken</t>
   </si>
 </sst>
 </file>
@@ -320,7 +347,7 @@
     <numFmt numFmtId="168" formatCode="d/\ mmm\ yyyy"/>
     <numFmt numFmtId="169" formatCode="d"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,20 +432,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -580,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +827,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1032,7 +1057,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1054,49 +1079,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1123,8 +1148,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,23 +1175,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -1177,12 +1200,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1201,8 +1221,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1259,12 +1279,24 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,16 +1306,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="43" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2012,17 +2047,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="35.265625" customWidth="1"/>
     <col min="3" max="3" width="30.73046875" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" customWidth="1"/>
     <col min="5" max="5" width="10.3984375" style="5" customWidth="1"/>
@@ -2034,378 +2069,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="19"/>
+      <c r="F1" s="17"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="68">
+      <c r="D3" s="65"/>
+      <c r="E3" s="62">
         <f ca="1">TODAY()</f>
-        <v>45456</v>
-      </c>
-      <c r="F3" s="68"/>
+        <v>45469</v>
+      </c>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="6">
         <v>-6</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="59">
         <f ca="1">I5</f>
-        <v>45404</v>
-      </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="65">
+        <v>45418</v>
+      </c>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="59">
         <f ca="1">P5</f>
-        <v>45411</v>
-      </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="65">
+        <v>45425</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="59">
         <f ca="1">W5</f>
-        <v>45418</v>
-      </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="65">
+        <v>45432</v>
+      </c>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="59">
         <f ca="1">AD5</f>
-        <v>45425</v>
-      </c>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="65">
+        <v>45439</v>
+      </c>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="59">
         <f ca="1">AK5</f>
-        <v>45432</v>
-      </c>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="65">
+        <v>45446</v>
+      </c>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="59">
         <f ca="1">AR5</f>
-        <v>45439</v>
-      </c>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="65">
+        <v>45453</v>
+      </c>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="59">
         <f ca="1">AY5</f>
-        <v>45446</v>
-      </c>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="65">
+        <v>45460</v>
+      </c>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="61"/>
+      <c r="BF4" s="59">
         <f ca="1">BF5</f>
-        <v>45453</v>
-      </c>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="67"/>
+        <v>45467</v>
+      </c>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="61"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="I5" s="46">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="I5" s="43">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
-        <v>45404</v>
-      </c>
-      <c r="J5" s="47">
+        <v>45418</v>
+      </c>
+      <c r="J5" s="44">
         <f ca="1">I5+1</f>
-        <v>45405</v>
-      </c>
-      <c r="K5" s="47">
+        <v>45419</v>
+      </c>
+      <c r="K5" s="44">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45406</v>
-      </c>
-      <c r="L5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45407</v>
-      </c>
-      <c r="M5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45408</v>
-      </c>
-      <c r="N5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45409</v>
-      </c>
-      <c r="O5" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>45410</v>
-      </c>
-      <c r="P5" s="46">
-        <f ca="1">O5+1</f>
-        <v>45411</v>
-      </c>
-      <c r="Q5" s="47">
-        <f ca="1">P5+1</f>
-        <v>45412</v>
-      </c>
-      <c r="R5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45413</v>
-      </c>
-      <c r="S5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45414</v>
-      </c>
-      <c r="T5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45415</v>
-      </c>
-      <c r="U5" s="47">
-        <f t="shared" ca="1" si="0"/>
-        <v>45416</v>
-      </c>
-      <c r="V5" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>45417</v>
-      </c>
-      <c r="W5" s="46">
-        <f ca="1">V5+1</f>
-        <v>45418</v>
-      </c>
-      <c r="X5" s="47">
-        <f ca="1">W5+1</f>
-        <v>45419</v>
-      </c>
-      <c r="Y5" s="47">
-        <f t="shared" ca="1" si="0"/>
         <v>45420</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="L5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45421</v>
       </c>
-      <c r="AA5" s="47">
+      <c r="M5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45422</v>
       </c>
-      <c r="AB5" s="47">
+      <c r="N5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45423</v>
       </c>
-      <c r="AC5" s="48">
+      <c r="O5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>45424</v>
       </c>
-      <c r="AD5" s="46">
-        <f ca="1">AC5+1</f>
+      <c r="P5" s="43">
+        <f ca="1">O5+1</f>
         <v>45425</v>
       </c>
-      <c r="AE5" s="47">
-        <f ca="1">AD5+1</f>
+      <c r="Q5" s="44">
+        <f ca="1">P5+1</f>
         <v>45426</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="R5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45427</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="S5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45428</v>
       </c>
-      <c r="AH5" s="47">
+      <c r="T5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45429</v>
       </c>
-      <c r="AI5" s="47">
+      <c r="U5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45430</v>
       </c>
-      <c r="AJ5" s="48">
+      <c r="V5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>45431</v>
       </c>
-      <c r="AK5" s="46">
-        <f ca="1">AJ5+1</f>
+      <c r="W5" s="43">
+        <f ca="1">V5+1</f>
         <v>45432</v>
       </c>
-      <c r="AL5" s="47">
-        <f ca="1">AK5+1</f>
+      <c r="X5" s="44">
+        <f ca="1">W5+1</f>
         <v>45433</v>
       </c>
-      <c r="AM5" s="47">
+      <c r="Y5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45434</v>
       </c>
-      <c r="AN5" s="47">
+      <c r="Z5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45435</v>
       </c>
-      <c r="AO5" s="47">
+      <c r="AA5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45436</v>
       </c>
-      <c r="AP5" s="47">
+      <c r="AB5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45437</v>
       </c>
-      <c r="AQ5" s="48">
+      <c r="AC5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>45438</v>
       </c>
-      <c r="AR5" s="46">
-        <f ca="1">AQ5+1</f>
+      <c r="AD5" s="43">
+        <f ca="1">AC5+1</f>
         <v>45439</v>
       </c>
-      <c r="AS5" s="47">
-        <f ca="1">AR5+1</f>
+      <c r="AE5" s="44">
+        <f ca="1">AD5+1</f>
         <v>45440</v>
       </c>
-      <c r="AT5" s="47">
+      <c r="AF5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45441</v>
       </c>
-      <c r="AU5" s="47">
+      <c r="AG5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45442</v>
       </c>
-      <c r="AV5" s="47">
+      <c r="AH5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45443</v>
       </c>
-      <c r="AW5" s="47">
+      <c r="AI5" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>45444</v>
       </c>
-      <c r="AX5" s="48">
+      <c r="AJ5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>45445</v>
       </c>
-      <c r="AY5" s="46">
+      <c r="AK5" s="43">
+        <f ca="1">AJ5+1</f>
+        <v>45446</v>
+      </c>
+      <c r="AL5" s="44">
+        <f ca="1">AK5+1</f>
+        <v>45447</v>
+      </c>
+      <c r="AM5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45448</v>
+      </c>
+      <c r="AN5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45449</v>
+      </c>
+      <c r="AO5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45450</v>
+      </c>
+      <c r="AP5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45451</v>
+      </c>
+      <c r="AQ5" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45452</v>
+      </c>
+      <c r="AR5" s="43">
+        <f ca="1">AQ5+1</f>
+        <v>45453</v>
+      </c>
+      <c r="AS5" s="44">
+        <f ca="1">AR5+1</f>
+        <v>45454</v>
+      </c>
+      <c r="AT5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45455</v>
+      </c>
+      <c r="AU5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45456</v>
+      </c>
+      <c r="AV5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45457</v>
+      </c>
+      <c r="AW5" s="44">
+        <f t="shared" ca="1" si="0"/>
+        <v>45458</v>
+      </c>
+      <c r="AX5" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45459</v>
+      </c>
+      <c r="AY5" s="43">
         <f ca="1">AX5+1</f>
-        <v>45446</v>
-      </c>
-      <c r="AZ5" s="47">
+        <v>45460</v>
+      </c>
+      <c r="AZ5" s="44">
         <f ca="1">AY5+1</f>
-        <v>45447</v>
-      </c>
-      <c r="BA5" s="47">
+        <v>45461</v>
+      </c>
+      <c r="BA5" s="44">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45448</v>
-      </c>
-      <c r="BB5" s="47">
+        <v>45462</v>
+      </c>
+      <c r="BB5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>45449</v>
-      </c>
-      <c r="BC5" s="47">
+        <v>45463</v>
+      </c>
+      <c r="BC5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>45450</v>
-      </c>
-      <c r="BD5" s="47">
+        <v>45464</v>
+      </c>
+      <c r="BD5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>45451</v>
-      </c>
-      <c r="BE5" s="48">
+        <v>45465</v>
+      </c>
+      <c r="BE5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>45452</v>
-      </c>
-      <c r="BF5" s="46">
+        <v>45466</v>
+      </c>
+      <c r="BF5" s="43">
         <f ca="1">BE5+1</f>
-        <v>45453</v>
-      </c>
-      <c r="BG5" s="47">
+        <v>45467</v>
+      </c>
+      <c r="BG5" s="44">
         <f ca="1">BF5+1</f>
-        <v>45454</v>
-      </c>
-      <c r="BH5" s="47">
+        <v>45468</v>
+      </c>
+      <c r="BH5" s="44">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45455</v>
-      </c>
-      <c r="BI5" s="47">
+        <v>45469</v>
+      </c>
+      <c r="BI5" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>45456</v>
-      </c>
-      <c r="BJ5" s="47">
+        <v>45470</v>
+      </c>
+      <c r="BJ5" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>45457</v>
-      </c>
-      <c r="BK5" s="47">
+        <v>45471</v>
+      </c>
+      <c r="BK5" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>45458</v>
-      </c>
-      <c r="BL5" s="48">
+        <v>45472</v>
+      </c>
+      <c r="BL5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>45459</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2653,2753 +2688,3432 @@
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="30"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="str">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="str">
         <f t="shared" ref="H8:H30" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-      <c r="BL8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="49" t="str">
+      <c r="B9" s="46" t="str">
         <f>[1]Projektplan!B28</f>
         <v>Gantt Chart Erstellen</v>
       </c>
-      <c r="C9" s="37" t="str">
+      <c r="C9" s="34" t="str">
         <f>[1]Projektplan!C28</f>
         <v>Christian</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f>[1]Projektplan!D28</f>
         <v>1</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="55">
         <v>45405</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="55">
         <v>45413</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="str">
+      <c r="B10" s="46" t="str">
         <f>[1]Projektplan!B29</f>
         <v xml:space="preserve">Grobes Klassendiagramm </v>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="34" t="str">
         <f>[1]Projektplan!C29</f>
         <v>Linh</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f>[1]Projektplan!D29</f>
         <v>1</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="55">
         <v>45405</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="55">
         <v>45413</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="49" t="str">
+      <c r="A11" s="28"/>
+      <c r="B11" s="46" t="str">
         <f>[1]Projektplan!B30</f>
         <v>Grobe Implementierung Klassen</v>
       </c>
-      <c r="C11" s="37" t="str">
+      <c r="C11" s="34" t="str">
         <f>[1]Projektplan!C30</f>
         <v>Christian</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <f>[1]Projektplan!D30</f>
         <v>1</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="55">
         <v>45405</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="55">
         <v>45413</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="49" t="str">
+      <c r="A12" s="28"/>
+      <c r="B12" s="46" t="str">
         <f>[1]Projektplan!B31</f>
         <v xml:space="preserve"> Input / Output</v>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="34" t="str">
         <f>[1]Projektplan!C31</f>
         <v>Parviz</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f>[1]Projektplan!D31</f>
         <v>1</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="55">
         <v>45405</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="55">
         <v>45413</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="49" t="str">
+      <c r="A13" s="28"/>
+      <c r="B13" s="46" t="str">
         <f>[1]Projektplan!B32</f>
         <v>GitLab Einrichten</v>
       </c>
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="34" t="str">
         <f>[1]Projektplan!C32</f>
         <v>Le</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f>[1]Projektplan!D32</f>
         <v>1</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="55">
         <v>45405</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="55">
         <v>45406</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="49" t="str">
+      <c r="B14" s="46" t="str">
         <f>[1]Projektplan!B33</f>
         <v>POM Maven</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="13">
+      <c r="C14" s="34"/>
+      <c r="D14" s="11">
         <f>[1]Projektplan!D33</f>
         <v>1</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="55">
         <f>[1]Projektplan!E33</f>
         <v>45414</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="55">
         <f>[1]Projektplan!F33</f>
         <v>45422</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="31"/>
-      <c r="B15" s="49" t="str">
+      <c r="A15" s="29"/>
+      <c r="B15" s="46" t="str">
         <f>[1]Projektplan!B34</f>
         <v>Use Case Diagramm</v>
       </c>
-      <c r="C15" s="37" t="str">
+      <c r="C15" s="34" t="str">
         <f>[1]Projektplan!C34</f>
         <v>Le</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f>[1]Projektplan!D34</f>
         <v>1</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="55">
         <f>[1]Projektplan!E34</f>
         <v>45414</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="55">
         <f>[1]Projektplan!F34</f>
         <v>45422</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
-      <c r="BL15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="49" t="str">
+      <c r="A16" s="28"/>
+      <c r="B16" s="46" t="str">
         <f>[1]Projektplan!B35</f>
         <v>Tests</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <f>[1]Projektplan!D35</f>
         <v>1</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="55">
         <f>[1]Projektplan!E35</f>
         <v>45405</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="55">
         <f>[1]Projektplan!F35</f>
         <v>45413</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="30"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="str">
+      <c r="D17" s="13"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <v>45433</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <v>45433</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="51">
         <v>1</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <v>45433</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <v>45437</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="51">
         <v>1</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="42">
         <v>45419</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="42">
         <v>45426</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="51">
         <v>1</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <v>45426</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="42">
         <v>45433</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="17"/>
-      <c r="BF21" s="17"/>
-      <c r="BG21" s="17"/>
-      <c r="BH21" s="17"/>
-      <c r="BI21" s="17"/>
-      <c r="BJ21" s="17"/>
-      <c r="BK21" s="17"/>
-      <c r="BL21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="51">
         <v>1</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="42">
         <v>45433</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="42">
         <v>45440</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="17"/>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
-      <c r="AW22" s="17"/>
-      <c r="AX22" s="17"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="17"/>
-      <c r="BA22" s="17"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="17"/>
-      <c r="BE22" s="17"/>
-      <c r="BF22" s="17"/>
-      <c r="BG22" s="17"/>
-      <c r="BH22" s="17"/>
-      <c r="BI22" s="17"/>
-      <c r="BJ22" s="17"/>
-      <c r="BK22" s="17"/>
-      <c r="BL22" s="17"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="51">
         <v>1</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="58">
         <v>45433</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="58">
         <v>45440</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="17"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="17"/>
-      <c r="BH23" s="17"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="17"/>
-      <c r="BK23" s="17"/>
-      <c r="BL23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="51">
         <v>1</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>45426</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="42">
         <v>45433</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="17"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="17"/>
-      <c r="BH24" s="17"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="17"/>
-      <c r="BK24" s="17"/>
-      <c r="BL24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="51">
         <v>1</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="42">
         <v>45447</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="42">
         <v>45571</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
-      <c r="AW25" s="17"/>
-      <c r="AX25" s="17"/>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17"/>
-      <c r="BA25" s="17"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="17"/>
-      <c r="BE25" s="17"/>
-      <c r="BF25" s="17"/>
-      <c r="BG25" s="17"/>
-      <c r="BH25" s="17"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="17"/>
-      <c r="BK25" s="17"/>
-      <c r="BL25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="51">
         <v>1</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>45453</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="42">
         <v>45455</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
-      <c r="BH26" s="17"/>
-      <c r="BI26" s="17"/>
-      <c r="BJ26" s="17"/>
-      <c r="BK26" s="17"/>
-      <c r="BL26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="51">
         <v>1</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="42">
         <v>45449</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="42">
         <v>45456</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="17"/>
-      <c r="BA27" s="17"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="17"/>
-      <c r="BF27" s="17"/>
-      <c r="BG27" s="17"/>
-      <c r="BH27" s="17"/>
-      <c r="BI27" s="17"/>
-      <c r="BJ27" s="17"/>
-      <c r="BK27" s="17"/>
-      <c r="BL27" s="17"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="51">
         <v>1</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="42">
         <v>45433</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="42">
         <v>45440</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="17"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="17"/>
-      <c r="BH28" s="17"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="51">
         <v>1</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="42">
         <v>45433</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="42">
         <v>45440</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="17"/>
-      <c r="BH29" s="17"/>
-      <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
-      <c r="BL29" s="17"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="51">
         <v>1</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="42">
         <v>45433</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="42">
         <v>45440</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="17"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-      <c r="BF30" s="17"/>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
-      <c r="BI30" s="17"/>
-      <c r="BJ30" s="17"/>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="51">
         <v>1</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>45440</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="42">
         <v>45447</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>8</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
-      <c r="AO31" s="17"/>
-      <c r="AP31" s="17"/>
-      <c r="AQ31" s="17"/>
-      <c r="AR31" s="17"/>
-      <c r="AS31" s="17"/>
-      <c r="AT31" s="17"/>
-      <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
-      <c r="AW31" s="17"/>
-      <c r="AX31" s="17"/>
-      <c r="AY31" s="17"/>
-      <c r="AZ31" s="17"/>
-      <c r="BA31" s="17"/>
-      <c r="BB31" s="17"/>
-      <c r="BC31" s="17"/>
-      <c r="BD31" s="17"/>
-      <c r="BE31" s="17"/>
-      <c r="BF31" s="17"/>
-      <c r="BG31" s="17"/>
-      <c r="BH31" s="17"/>
-      <c r="BI31" s="17"/>
-      <c r="BJ31" s="17"/>
-      <c r="BK31" s="17"/>
-      <c r="BL31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="51">
         <v>1</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="42">
         <v>45440</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="42">
         <v>45447</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>8</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
-      <c r="AW32" s="17"/>
-      <c r="AX32" s="17"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="17"/>
-      <c r="BA32" s="17"/>
-      <c r="BB32" s="17"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="17"/>
-      <c r="BE32" s="17"/>
-      <c r="BF32" s="17"/>
-      <c r="BG32" s="17"/>
-      <c r="BH32" s="17"/>
-      <c r="BI32" s="17"/>
-      <c r="BJ32" s="17"/>
-      <c r="BK32" s="17"/>
-      <c r="BL32" s="17"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="51">
         <v>1</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="42">
         <v>45448</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="42">
         <v>45510</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
-      <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
-      <c r="AW33" s="17"/>
-      <c r="AX33" s="17"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="17"/>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="17"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="17"/>
-      <c r="BE33" s="17"/>
-      <c r="BF33" s="17"/>
-      <c r="BG33" s="17"/>
-      <c r="BH33" s="17"/>
-      <c r="BI33" s="17"/>
-      <c r="BJ33" s="17"/>
-      <c r="BK33" s="17"/>
-      <c r="BL33" s="17"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="54">
+      <c r="C34" s="35"/>
+      <c r="D34" s="51">
         <v>1</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="42">
         <v>45449</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="42">
         <v>45453</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="17"/>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
-      <c r="AT34" s="17"/>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
-      <c r="AW34" s="17"/>
-      <c r="AX34" s="17"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="17"/>
-      <c r="BA34" s="17"/>
-      <c r="BB34" s="17"/>
-      <c r="BC34" s="17"/>
-      <c r="BD34" s="17"/>
-      <c r="BE34" s="17"/>
-      <c r="BF34" s="17"/>
-      <c r="BG34" s="17"/>
-      <c r="BH34" s="17"/>
-      <c r="BI34" s="17"/>
-      <c r="BJ34" s="17"/>
-      <c r="BK34" s="17"/>
-      <c r="BL34" s="17"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="30"/>
-      <c r="B35" s="57" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="51">
         <v>1</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="42">
         <v>45448</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="42">
         <v>45448</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="17"/>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="17"/>
-      <c r="BK35" s="17"/>
-      <c r="BL35" s="17"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="45">
+      <c r="C36" s="35"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="42">
         <v>45449</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="42">
         <v>45453</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>5</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="17"/>
-      <c r="AR36" s="17"/>
-      <c r="AS36" s="17"/>
-      <c r="AT36" s="17"/>
-      <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
-      <c r="AW36" s="17"/>
-      <c r="AX36" s="17"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="17"/>
-      <c r="BA36" s="17"/>
-      <c r="BB36" s="17"/>
-      <c r="BC36" s="17"/>
-      <c r="BD36" s="17"/>
-      <c r="BE36" s="17"/>
-      <c r="BF36" s="17"/>
-      <c r="BG36" s="17"/>
-      <c r="BH36" s="17"/>
-      <c r="BI36" s="17"/>
-      <c r="BJ36" s="17"/>
-      <c r="BK36" s="17"/>
-      <c r="BL36" s="17"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="31"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="51">
         <v>0.5</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="42">
         <v>45453</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="42">
         <v>45456</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="17"/>
-      <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
-      <c r="AW37" s="17"/>
-      <c r="AX37" s="17"/>
-      <c r="AY37" s="17"/>
-      <c r="AZ37" s="17"/>
-      <c r="BA37" s="17"/>
-      <c r="BB37" s="17"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="17"/>
-      <c r="BE37" s="17"/>
-      <c r="BF37" s="17"/>
-      <c r="BG37" s="17"/>
-      <c r="BH37" s="17"/>
-      <c r="BI37" s="17"/>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="17"/>
-      <c r="BL37" s="17"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="31"/>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="45">
+      <c r="D38" s="51"/>
+      <c r="E38" s="42">
         <v>45455</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="42">
         <v>45455</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-      <c r="BF38" s="17"/>
-      <c r="BG38" s="17"/>
-      <c r="BH38" s="17"/>
-      <c r="BI38" s="17"/>
-      <c r="BJ38" s="17"/>
-      <c r="BK38" s="17"/>
-      <c r="BL38" s="17"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="45">
+      <c r="C39" s="35"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="42">
         <v>45455</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="42">
         <v>45458</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-      <c r="AN39" s="17"/>
-      <c r="AO39" s="17"/>
-      <c r="AP39" s="17"/>
-      <c r="AQ39" s="17"/>
-      <c r="AR39" s="17"/>
-      <c r="AS39" s="17"/>
-      <c r="AT39" s="17"/>
-      <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
-      <c r="AW39" s="17"/>
-      <c r="AX39" s="17"/>
-      <c r="AY39" s="17"/>
-      <c r="AZ39" s="17"/>
-      <c r="BA39" s="17"/>
-      <c r="BB39" s="17"/>
-      <c r="BC39" s="17"/>
-      <c r="BD39" s="17"/>
-      <c r="BE39" s="17"/>
-      <c r="BF39" s="17"/>
-      <c r="BG39" s="17"/>
-      <c r="BH39" s="17"/>
-      <c r="BI39" s="17"/>
-      <c r="BJ39" s="17"/>
-      <c r="BK39" s="17"/>
-      <c r="BL39" s="17"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="31"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="45">
+      <c r="C40" s="35"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="42">
         <v>45454</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="42">
         <v>45458</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
-      <c r="AO40" s="17"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="17"/>
-      <c r="AR40" s="17"/>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="17"/>
-      <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
-      <c r="AW40" s="17"/>
-      <c r="AX40" s="17"/>
-      <c r="AY40" s="17"/>
-      <c r="AZ40" s="17"/>
-      <c r="BA40" s="17"/>
-      <c r="BB40" s="17"/>
-      <c r="BC40" s="17"/>
-      <c r="BD40" s="17"/>
-      <c r="BE40" s="17"/>
-      <c r="BF40" s="17"/>
-      <c r="BG40" s="17"/>
-      <c r="BH40" s="17"/>
-      <c r="BI40" s="17"/>
-      <c r="BJ40" s="17"/>
-      <c r="BK40" s="17"/>
-      <c r="BL40" s="17"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="51">
         <v>1</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="42">
         <v>45454</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="42">
         <v>45454</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="17"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="17"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="17"/>
-      <c r="AY41" s="17"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="17"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="17"/>
-      <c r="BE41" s="17"/>
-      <c r="BF41" s="17"/>
-      <c r="BG41" s="17"/>
-      <c r="BH41" s="17"/>
-      <c r="BI41" s="17"/>
-      <c r="BJ41" s="17"/>
-      <c r="BK41" s="17"/>
-      <c r="BL41" s="17"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="10"/>
-      <c r="F42" s="32"/>
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="str">
+        <f t="shared" ref="H42:H50" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="15"/>
+      <c r="AS42" s="15"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="11"/>
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70">
+        <v>45468</v>
+      </c>
+      <c r="F43" s="70">
+        <v>45473</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="15"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="69">
+        <v>1</v>
+      </c>
+      <c r="E44" s="70">
+        <v>45464</v>
+      </c>
+      <c r="F44" s="70">
+        <v>45468</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70">
+        <v>45469</v>
+      </c>
+      <c r="F45" s="70">
+        <v>45473</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="15"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70">
+        <v>45469</v>
+      </c>
+      <c r="F46" s="70">
+        <v>45473</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="15"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="70">
+        <v>45469</v>
+      </c>
+      <c r="F47" s="70">
+        <v>45473</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="15"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="15"/>
+      <c r="AY47" s="15"/>
+      <c r="AZ47" s="15"/>
+      <c r="BA47" s="15"/>
+      <c r="BB47" s="15"/>
+      <c r="BC47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="15"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="15"/>
+      <c r="BL47" s="15"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70">
+        <v>45469</v>
+      </c>
+      <c r="F48" s="70">
+        <v>45473</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="15"/>
+      <c r="AR48" s="15"/>
+      <c r="AS48" s="15"/>
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
+      <c r="AX48" s="15"/>
+      <c r="AY48" s="15"/>
+      <c r="AZ48" s="15"/>
+      <c r="BA48" s="15"/>
+      <c r="BB48" s="15"/>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="15"/>
+      <c r="BF48" s="15"/>
+      <c r="BG48" s="15"/>
+      <c r="BH48" s="15"/>
+      <c r="BI48" s="15"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="15"/>
+      <c r="BL48" s="15"/>
+    </row>
+    <row r="49" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70">
+        <v>45469</v>
+      </c>
+      <c r="F49" s="70">
+        <v>45473</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="15"/>
+      <c r="BG49" s="15"/>
+      <c r="BH49" s="15"/>
+      <c r="BI49" s="15"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="15"/>
+    </row>
+    <row r="50" spans="2:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70">
+        <v>45475</v>
+      </c>
+      <c r="F50" s="70">
+        <v>45475</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="15"/>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="15"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="15"/>
+      <c r="BG50" s="15"/>
+      <c r="BH50" s="15"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5407,14 +6121,9 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5428,7 +6137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D16">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5442,7 +6151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D41 D7">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5455,17 +6164,31 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL41">
-    <cfRule type="expression" dxfId="2" priority="35">
+  <conditionalFormatting sqref="I5:BL50">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL41">
-    <cfRule type="expression" dxfId="1" priority="29">
+  <conditionalFormatting sqref="I7:BL50">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D50">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DCD1022F-8A64-4292-9211-5449DEB281FF}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5531,6 +6254,21 @@
           </x14:cfRule>
           <xm:sqref>D17:D41 D7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DCD1022F-8A64-4292-9211-5449DEB281FF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D43:D50</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5545,85 +6283,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.1328125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="87.1328125" style="18" customWidth="1"/>
     <col min="2" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:2" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:2" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:2" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:2" s="24" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:2" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:2" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="20" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:2" s="18" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:2" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:2" s="18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:2" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:2" s="18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:2" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5641,35 +6379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5957,27 +6666,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5996,4 +6714,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>